--- a/Gradebook.xlsx
+++ b/Gradebook.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17771" windowHeight="9707"/>
+    <workbookView windowWidth="18350" windowHeight="7510"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet_Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,9 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
-    <t xml:space="preserve">Gradebook </t>
+    <t>Sr. NO</t>
+  </si>
+  <si>
+    <t>Employee Name</t>
   </si>
   <si>
     <t>Safety Test</t>
@@ -44,115 +47,64 @@
     <t>Drug Test</t>
   </si>
   <si>
-    <t>Fired Employee</t>
+    <t>Employee Need to be Fired</t>
   </si>
   <si>
-    <t>Points Possible</t>
+    <t>Maximum Score</t>
   </si>
   <si>
-    <t>Last Name</t>
+    <t>Maximum Percentage</t>
   </si>
   <si>
-    <t>First Name</t>
+    <t>YANG JON</t>
   </si>
   <si>
-    <t>YANG</t>
+    <t>HUANG EUGENE</t>
   </si>
   <si>
-    <t>JON</t>
+    <t>TORRES RUBEN</t>
   </si>
   <si>
-    <t>HUANG</t>
+    <t>ZHU CHRISTY</t>
   </si>
   <si>
-    <t>EUGENE</t>
+    <t>JOHNSON ELIZABETH</t>
   </si>
   <si>
-    <t>TORRES</t>
+    <t>RUIZ JULIO</t>
   </si>
   <si>
-    <t>RUBEN</t>
+    <t>MEHTA MARCO</t>
   </si>
   <si>
-    <t>ZHU</t>
+    <t>VERHOFF ROBIN</t>
   </si>
   <si>
-    <t>CHRISTY</t>
+    <t>CARLSON SHANNON</t>
   </si>
   <si>
-    <t>JOHNSON</t>
+    <t>SUAREZ JACQUELYN</t>
   </si>
   <si>
-    <t>ELIZABETH</t>
+    <t>LU CURTIS</t>
   </si>
   <si>
-    <t>RUIZ</t>
+    <t>WALKER LAUREN</t>
   </si>
   <si>
-    <t>JULIO</t>
+    <t>JENKINS IAN</t>
   </si>
   <si>
-    <t>MEHTA</t>
+    <t>BENNETT SYDNEY</t>
   </si>
   <si>
-    <t>MARCO</t>
+    <t>YOUNG CHLOE</t>
   </si>
   <si>
-    <t>VERHOFF</t>
+    <t>HILL WYATT</t>
   </si>
   <si>
-    <t>ROBIN</t>
-  </si>
-  <si>
-    <t>CARLSON</t>
-  </si>
-  <si>
-    <t>SHANNON</t>
-  </si>
-  <si>
-    <t>SUAREZ</t>
-  </si>
-  <si>
-    <t>JACQUELYN</t>
-  </si>
-  <si>
-    <t>LU</t>
-  </si>
-  <si>
-    <t>CURTIS</t>
-  </si>
-  <si>
-    <t>WALKER</t>
-  </si>
-  <si>
-    <t>LAUREN</t>
-  </si>
-  <si>
-    <t>JENKINS</t>
-  </si>
-  <si>
-    <t>IAN</t>
-  </si>
-  <si>
-    <t>BENNETT</t>
-  </si>
-  <si>
-    <t>SYDNEY</t>
-  </si>
-  <si>
-    <t>YOUNG</t>
-  </si>
-  <si>
-    <t>CHLOE</t>
-  </si>
-  <si>
-    <t>HILL</t>
-  </si>
-  <si>
-    <t>WYATT</t>
-  </si>
-  <si>
-    <t>WANG</t>
+    <t>WANG SHANNON</t>
   </si>
   <si>
     <t>MAX</t>
@@ -162,6 +114,9 @@
   </si>
   <si>
     <t>AVERAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Number of employee need to be fired are </t>
   </si>
 </sst>
 </file>
@@ -174,10 +129,34 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -327,12 +306,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -521,12 +530,186 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="21">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -647,151 +830,232 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1093,14 +1357,33 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.412595722207552"/>
-          <c:y val="0.00685244403837369"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-GB" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" altLang="en-GB"/>
+              <a:t>Company Philosophy Test Results</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" altLang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1109,25 +1392,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1139,17 +1403,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Safety Test</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1165,122 +1418,119 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$4:$A$20</c:f>
+              <c:f>Sheet_Main!$B$6:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>YANG</c:v>
+                  <c:v>YANG JON</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>HUANG</c:v>
+                  <c:v>HUANG EUGENE</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TORRES</c:v>
+                  <c:v>TORRES RUBEN</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ZHU</c:v>
+                  <c:v>ZHU CHRISTY</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>JOHNSON</c:v>
+                  <c:v>JOHNSON ELIZABETH</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>RUIZ</c:v>
+                  <c:v>RUIZ JULIO</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>MEHTA</c:v>
+                  <c:v>MEHTA MARCO</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>VERHOFF</c:v>
+                  <c:v>VERHOFF ROBIN</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>CARLSON</c:v>
+                  <c:v>CARLSON SHANNON</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>SUAREZ</c:v>
+                  <c:v>SUAREZ JACQUELYN</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>LU</c:v>
+                  <c:v>LU CURTIS</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>WALKER</c:v>
+                  <c:v>WALKER LAUREN</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>JENKINS</c:v>
+                  <c:v>JENKINS IAN</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>BENNETT</c:v>
+                  <c:v>BENNETT SYDNEY</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>YOUNG</c:v>
+                  <c:v>YOUNG CHLOE</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>HILL</c:v>
+                  <c:v>HILL WYATT</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>WANG</c:v>
+                  <c:v>WANG SHANNON</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$20</c:f>
+              <c:f>Sheet_Main!$D$6:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1294,18 +1544,55 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="246"/>
-        <c:overlap val="-28"/>
-        <c:axId val="228949419"/>
-        <c:axId val="512151503"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="726687776"/>
+        <c:axId val="647740225"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="228949419"/>
+        <c:axId val="726687776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN" altLang="en-GB"/>
+                  <a:t>Employee</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN" altLang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1327,7 +1614,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1341,7 +1628,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512151503"/>
+        <c:crossAx val="647740225"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1349,7 +1636,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="512151503"/>
+        <c:axId val="647740225"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1368,6 +1655,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN" altLang="en-GB"/>
+                  <a:t>Company Philosophy </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN" altLang="en-GB"/>
+              </a:p>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN" altLang="en-GB"/>
+                  <a:t>Test Score</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN" altLang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1384,7 +1728,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1398,7 +1742,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228949419"/>
+        <c:crossAx val="726687776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1411,7 +1755,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1426,7 +1770,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1465,7 +1809,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr lang="en-US"/>
+        <a:defRPr lang="en-GB"/>
       </a:pPr>
     </a:p>
   </c:txPr>
@@ -1492,6 +1836,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-GB" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Financial Skills Test</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" altLang="en-GB"/>
+              <a:t> Results</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" altLang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1501,25 +1874,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1531,17 +1885,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Company Philosophy Test</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1557,122 +1900,119 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$4:$A$20</c:f>
+              <c:f>Sheet_Main!$B$6:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>YANG</c:v>
+                  <c:v>YANG JON</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>HUANG</c:v>
+                  <c:v>HUANG EUGENE</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TORRES</c:v>
+                  <c:v>TORRES RUBEN</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ZHU</c:v>
+                  <c:v>ZHU CHRISTY</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>JOHNSON</c:v>
+                  <c:v>JOHNSON ELIZABETH</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>RUIZ</c:v>
+                  <c:v>RUIZ JULIO</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>MEHTA</c:v>
+                  <c:v>MEHTA MARCO</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>VERHOFF</c:v>
+                  <c:v>VERHOFF ROBIN</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>CARLSON</c:v>
+                  <c:v>CARLSON SHANNON</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>SUAREZ</c:v>
+                  <c:v>SUAREZ JACQUELYN</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>LU</c:v>
+                  <c:v>LU CURTIS</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>WALKER</c:v>
+                  <c:v>WALKER LAUREN</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>JENKINS</c:v>
+                  <c:v>JENKINS IAN</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>BENNETT</c:v>
+                  <c:v>BENNETT SYDNEY</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>YOUNG</c:v>
+                  <c:v>YOUNG CHLOE</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>HILL</c:v>
+                  <c:v>HILL WYATT</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>WANG</c:v>
+                  <c:v>WANG SHANNON</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$20</c:f>
+              <c:f>Sheet_Main!$E$6:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1686,18 +2026,55 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="246"/>
-        <c:overlap val="-28"/>
-        <c:axId val="976463200"/>
-        <c:axId val="28298622"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="650310702"/>
+        <c:axId val="260011691"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="976463200"/>
+        <c:axId val="650310702"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN" altLang="en-GB"/>
+                  <a:t>Employee</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN" altLang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1719,7 +2096,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1733,7 +2110,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28298622"/>
+        <c:crossAx val="260011691"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1741,7 +2118,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="28298622"/>
+        <c:axId val="260011691"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1760,6 +2137,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN" altLang="en-GB"/>
+                  <a:t>Financial Skills </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN" altLang="en-GB"/>
+              </a:p>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN" altLang="en-GB"/>
+                  <a:t>Test Score</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN" altLang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1776,7 +2210,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1790,7 +2224,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="976463200"/>
+        <c:crossAx val="650310702"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1803,7 +2237,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1818,7 +2252,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1857,7 +2291,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr lang="en-US"/>
+        <a:defRPr lang="en-GB"/>
       </a:pPr>
     </a:p>
   </c:txPr>
@@ -1884,6 +2318,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-GB" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" altLang="en-GB"/>
+              <a:t>Safety Test Results</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" altLang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1893,25 +2353,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1923,17 +2364,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Financial Skills Test</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1949,122 +2379,119 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$4:$B$20</c:f>
+              <c:f>Sheet_Main!$B$6:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>JON</c:v>
+                  <c:v>YANG JON</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>EUGENE</c:v>
+                  <c:v>HUANG EUGENE</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>RUBEN</c:v>
+                  <c:v>TORRES RUBEN</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>CHRISTY</c:v>
+                  <c:v>ZHU CHRISTY</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ELIZABETH</c:v>
+                  <c:v>JOHNSON ELIZABETH</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>JULIO</c:v>
+                  <c:v>RUIZ JULIO</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>MARCO</c:v>
+                  <c:v>MEHTA MARCO</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>ROBIN</c:v>
+                  <c:v>VERHOFF ROBIN</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>SHANNON</c:v>
+                  <c:v>CARLSON SHANNON</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>JACQUELYN</c:v>
+                  <c:v>SUAREZ JACQUELYN</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>CURTIS</c:v>
+                  <c:v>LU CURTIS</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>LAUREN</c:v>
+                  <c:v>WALKER LAUREN</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>IAN</c:v>
+                  <c:v>JENKINS IAN</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>SYDNEY</c:v>
+                  <c:v>BENNETT SYDNEY</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>CHLOE</c:v>
+                  <c:v>YOUNG CHLOE</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>WYATT</c:v>
+                  <c:v>HILL WYATT</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>SHANNON</c:v>
+                  <c:v>WANG SHANNON</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$20</c:f>
+              <c:f>Sheet_Main!$C$6:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>67</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>70</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>80</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>90</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>90</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>90</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2078,18 +2505,55 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="246"/>
-        <c:overlap val="-28"/>
-        <c:axId val="459535015"/>
-        <c:axId val="245370708"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="677997842"/>
+        <c:axId val="479568984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="459535015"/>
+        <c:axId val="677997842"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN" altLang="en-GB"/>
+                  <a:t>Employee</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN" altLang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2111,7 +2575,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2125,7 +2589,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245370708"/>
+        <c:crossAx val="479568984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2133,7 +2597,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245370708"/>
+        <c:axId val="479568984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2152,6 +2616,43 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN" altLang="en-GB"/>
+                  <a:t>Safety Test Score</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN" altLang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2168,7 +2669,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2182,7 +2683,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459535015"/>
+        <c:crossAx val="677997842"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2195,7 +2696,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2210,7 +2711,472 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{5758ca86-c847-4c58-bcc1-717fcceb4b80}"/>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-GB"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-GB" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Drug Test</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" altLang="en-GB"/>
+              <a:t> Results</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" altLang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet_Main!$B$6:$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>YANG JON</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HUANG EUGENE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TORRES RUBEN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZHU CHRISTY</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JOHNSON ELIZABETH</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RUIZ JULIO</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MEHTA MARCO</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>VERHOFF ROBIN</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CARLSON SHANNON</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SUAREZ JACQUELYN</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>LU CURTIS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>WALKER LAUREN</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>JENKINS IAN</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>BENNETT SYDNEY</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>YOUNG CHLOE</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>HILL WYATT</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>WANG SHANNON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet_Main!$F$6:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="261841315"/>
+        <c:axId val="33647620"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="261841315"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN" altLang="en-GB"/>
+                  <a:t>Employee</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN" altLang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="33647620"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="33647620"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN" altLang="en-GB"/>
+                  <a:t>Drug Test Score</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN" altLang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261841315"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2249,7 +3215,1817 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr lang="en-US"/>
+        <a:defRPr lang="en-GB"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-GB" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" altLang="en-GB"/>
+              <a:t>Employee’s Obtained Score </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" altLang="en-GB"/>
+          </a:p>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-GB" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" altLang="en-GB"/>
+              <a:t>In Different Tests</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" altLang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet_Main!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Safety Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet_Main!$B$6:$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>YANG JON</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HUANG EUGENE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TORRES RUBEN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZHU CHRISTY</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JOHNSON ELIZABETH</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RUIZ JULIO</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MEHTA MARCO</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>VERHOFF ROBIN</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CARLSON SHANNON</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SUAREZ JACQUELYN</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>LU CURTIS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>WALKER LAUREN</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>JENKINS IAN</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>BENNETT SYDNEY</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>YOUNG CHLOE</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>HILL WYATT</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>WANG SHANNON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet_Main!$C$6:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet_Main!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Company Philosophy Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet_Main!$B$6:$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>YANG JON</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HUANG EUGENE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TORRES RUBEN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZHU CHRISTY</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JOHNSON ELIZABETH</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RUIZ JULIO</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MEHTA MARCO</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>VERHOFF ROBIN</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CARLSON SHANNON</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SUAREZ JACQUELYN</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>LU CURTIS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>WALKER LAUREN</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>JENKINS IAN</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>BENNETT SYDNEY</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>YOUNG CHLOE</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>HILL WYATT</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>WANG SHANNON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet_Main!$D$6:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet_Main!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Financial Skills Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet_Main!$B$6:$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>YANG JON</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HUANG EUGENE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TORRES RUBEN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZHU CHRISTY</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JOHNSON ELIZABETH</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RUIZ JULIO</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MEHTA MARCO</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>VERHOFF ROBIN</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CARLSON SHANNON</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SUAREZ JACQUELYN</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>LU CURTIS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>WALKER LAUREN</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>JENKINS IAN</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>BENNETT SYDNEY</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>YOUNG CHLOE</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>HILL WYATT</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>WANG SHANNON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet_Main!$E$6:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet_Main!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Drug Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet_Main!$B$6:$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>YANG JON</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HUANG EUGENE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TORRES RUBEN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZHU CHRISTY</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JOHNSON ELIZABETH</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RUIZ JULIO</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MEHTA MARCO</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>VERHOFF ROBIN</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CARLSON SHANNON</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SUAREZ JACQUELYN</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>LU CURTIS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>WALKER LAUREN</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>JENKINS IAN</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>BENNETT SYDNEY</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>YOUNG CHLOE</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>HILL WYATT</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>WANG SHANNON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet_Main!$F$6:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="840020490"/>
+        <c:axId val="113902893"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="840020490"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="113902893"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="113902893"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN" altLang="en-GB"/>
+                  <a:t>Score Obtained</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN" altLang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="840020490"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="3"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-GB"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-GB" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Employee’s Obtained Score </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-GB" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" altLang="en-GB"/>
+              <a:t>In Different Tests</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" altLang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet_Main!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Safety Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet_Main!$B$6:$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>YANG JON</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HUANG EUGENE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TORRES RUBEN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZHU CHRISTY</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JOHNSON ELIZABETH</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RUIZ JULIO</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MEHTA MARCO</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>VERHOFF ROBIN</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CARLSON SHANNON</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SUAREZ JACQUELYN</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>LU CURTIS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>WALKER LAUREN</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>JENKINS IAN</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>BENNETT SYDNEY</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>YOUNG CHLOE</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>HILL WYATT</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>WANG SHANNON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet_Main!$G$6:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet_Main!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Company Philosophy Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet_Main!$B$6:$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>YANG JON</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HUANG EUGENE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TORRES RUBEN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZHU CHRISTY</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JOHNSON ELIZABETH</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RUIZ JULIO</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MEHTA MARCO</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>VERHOFF ROBIN</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CARLSON SHANNON</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SUAREZ JACQUELYN</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>LU CURTIS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>WALKER LAUREN</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>JENKINS IAN</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>BENNETT SYDNEY</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>YOUNG CHLOE</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>HILL WYATT</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>WANG SHANNON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet_Main!$H$6:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet_Main!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Financial Skills Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet_Main!$B$6:$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>YANG JON</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HUANG EUGENE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TORRES RUBEN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZHU CHRISTY</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JOHNSON ELIZABETH</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RUIZ JULIO</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MEHTA MARCO</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>VERHOFF ROBIN</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CARLSON SHANNON</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SUAREZ JACQUELYN</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>LU CURTIS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>WALKER LAUREN</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>JENKINS IAN</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>BENNETT SYDNEY</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>YOUNG CHLOE</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>HILL WYATT</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>WANG SHANNON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet_Main!$I$6:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet_Main!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Drug Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet_Main!$B$6:$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>YANG JON</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HUANG EUGENE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TORRES RUBEN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZHU CHRISTY</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JOHNSON ELIZABETH</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RUIZ JULIO</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MEHTA MARCO</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>VERHOFF ROBIN</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CARLSON SHANNON</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SUAREZ JACQUELYN</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>LU CURTIS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>WALKER LAUREN</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>JENKINS IAN</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>BENNETT SYDNEY</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>YOUNG CHLOE</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>HILL WYATT</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>WANG SHANNON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet_Main!$J$6:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="182519514"/>
+        <c:axId val="468438824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="182519514"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468438824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="468438824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN" altLang="en-GB"/>
+                  <a:t>Percentage Score</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN" altLang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="182519514"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-GB"/>
       </a:pPr>
     </a:p>
   </c:txPr>
@@ -2381,6 +5157,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10001">
   <cs:axisTitle>
@@ -3911,29 +6807,1549 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10001">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10028">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10028">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>584835</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>383540</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>157480</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>263525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>106045</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8356600" y="1510665"/>
-        <a:ext cx="6701790" cy="3417570"/>
+        <a:off x="10531475" y="3446145"/>
+        <a:ext cx="6711315" cy="2746375"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3945,25 +8361,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>596265</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>42545</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>509905</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>588645</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>172085</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>239395</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>46355</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="9" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8368030" y="4996180"/>
-        <a:ext cx="6697980" cy="3238500"/>
+        <a:off x="17489170" y="555625"/>
+        <a:ext cx="6692900" cy="2805430"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3975,29 +8391,119 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>181610</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>26035</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="10" name="Chart 9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8371840" y="8268335"/>
-        <a:ext cx="6702425" cy="3267710"/>
+        <a:off x="10544810" y="609600"/>
+        <a:ext cx="6746875" cy="2731135"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>471170</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>157480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="17450435" y="3472180"/>
+        <a:ext cx="6690360" cy="2746375"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>6985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>372745</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="335280" y="6461760"/>
+        <a:ext cx="10185400" cy="7129780"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276860</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>170180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>283210</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>151130</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="11045825" y="6440805"/>
+        <a:ext cx="13180060" cy="7162800"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4264,919 +8770,1101 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A3:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" zoomScale="31" zoomScaleNormal="31" workbookViewId="0">
+      <selection activeCell="AR17" sqref="AR17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="14.1111111111111" customWidth="1"/>
-    <col min="3" max="4" width="5.76851851851852" customWidth="1"/>
-    <col min="5" max="5" width="6.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="5.67592592592593" customWidth="1"/>
-    <col min="8" max="8" width="10.7777777777778"/>
+    <col min="2" max="2" width="20.0909090909091" customWidth="1"/>
+    <col min="3" max="4" width="14.1090909090909" customWidth="1"/>
+    <col min="5" max="5" width="12.8181818181818" customWidth="1"/>
+    <col min="6" max="6" width="8.1" customWidth="1"/>
+    <col min="7" max="7" width="9.20909090909091" customWidth="1"/>
+    <col min="8" max="8" width="12.8181818181818" customWidth="1"/>
+    <col min="9" max="9" width="12.8181818181818"/>
+    <col min="10" max="10" width="11.3909090909091" customWidth="1"/>
+    <col min="11" max="11" width="12.0363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="116.45" spans="1:13">
-      <c r="A1" t="s">
+    <row r="3" ht="43.5" spans="1:11">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="26"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="7">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7">
+        <v>100</v>
+      </c>
+      <c r="F5" s="7">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1</v>
+      </c>
+      <c r="K5" s="26"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="9">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11">
+        <f ca="1">RANDBETWEEN(8,10)</f>
+        <v>8</v>
+      </c>
+      <c r="D6" s="11">
+        <f ca="1">RANDBETWEEN(16,20)</f>
+        <v>16</v>
+      </c>
+      <c r="E6" s="11">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>75</v>
+      </c>
+      <c r="F6" s="11">
+        <f ca="1">RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <f ca="1">C6/$C$5</f>
+        <v>0.8</v>
+      </c>
+      <c r="H6" s="12">
+        <f ca="1">D6/$D$5</f>
+        <v>0.8</v>
+      </c>
+      <c r="I6" s="12">
+        <f ca="1">E6/$E$5</f>
+        <v>0.75</v>
+      </c>
+      <c r="J6" s="12">
+        <f ca="1">F6/$F$5</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="27" t="str">
+        <f ca="1">IF(OR(G6&lt;50%,H6&lt;50%,I6&lt;50%,J6=100%),"Yes","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="9">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11">
+        <f ca="1" t="shared" ref="C7:C16" si="0">RANDBETWEEN(8,10)</f>
+        <v>8</v>
+      </c>
+      <c r="D7" s="11">
+        <f ca="1" t="shared" ref="D7:D16" si="1">RANDBETWEEN(16,20)</f>
+        <v>19</v>
+      </c>
+      <c r="E7" s="11">
+        <f ca="1" t="shared" ref="E7:E16" si="2">RANDBETWEEN(60,100)</f>
+        <v>79</v>
+      </c>
+      <c r="F7" s="11">
+        <f ca="1" t="shared" ref="F7:F16" si="3">RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <f ca="1" t="shared" ref="G7:G22" si="4">C7/$C$5</f>
+        <v>0.8</v>
+      </c>
+      <c r="H7" s="12">
+        <f ca="1" t="shared" ref="H7:H22" si="5">D7/$D$5</f>
+        <v>0.95</v>
+      </c>
+      <c r="I7" s="12">
+        <f ca="1" t="shared" ref="I7:I22" si="6">E7/$E$5</f>
+        <v>0.79</v>
+      </c>
+      <c r="J7" s="12">
+        <f ca="1" t="shared" ref="J7:J22" si="7">F7/$F$5</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="27" t="str">
+        <f ca="1" t="shared" ref="K7:K22" si="8">IF(OR(G7&lt;50%,H7&lt;50%,I7&lt;50%,J7=100%),"Yes","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="9">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="11">
+        <f ca="1" t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D8" s="11">
+        <f ca="1" t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E8" s="11">
+        <f ca="1" t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="F8" s="11">
+        <f ca="1" t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="12">
+        <f ca="1" t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="H8" s="12">
+        <f ca="1" t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="12">
+        <f ca="1" t="shared" si="6"/>
+        <v>0.96</v>
+      </c>
+      <c r="J8" s="12">
+        <f ca="1" t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K8" s="27" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="9">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="11">
+        <f ca="1" t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D9" s="11">
+        <f ca="1" t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="E9" s="11">
+        <f ca="1" t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="F9" s="11">
+        <f ca="1" t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="12">
+        <f ca="1">C9/$C$5</f>
+        <v>0.8</v>
+      </c>
+      <c r="H9" s="12">
+        <f ca="1" t="shared" si="5"/>
+        <v>0.95</v>
+      </c>
+      <c r="I9" s="12">
+        <f ca="1" t="shared" si="6"/>
+        <v>0.71</v>
+      </c>
+      <c r="J9" s="12">
+        <f ca="1" t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="27" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="9">
         <v>5</v>
       </c>
+      <c r="B10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="11">
+        <f ca="1" t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D10" s="11">
+        <f ca="1" t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E10" s="11">
+        <f ca="1" t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="F10" s="11">
+        <f ca="1" t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="12">
+        <f ca="1" t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="12">
+        <f ca="1" t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="I10" s="12">
+        <f ca="1" t="shared" si="6"/>
+        <v>0.94</v>
+      </c>
+      <c r="J10" s="12">
+        <f ca="1" t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="27" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="2" spans="2:6">
-      <c r="B2" t="s">
+    <row r="11" spans="1:11">
+      <c r="A11" s="9">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="B11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="11">
+        <f ca="1" t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="D11" s="11">
+        <f ca="1" t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="E11" s="11">
+        <f ca="1" t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="F11" s="11">
+        <f ca="1" t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="12">
+        <f ca="1" t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="12">
+        <f ca="1" t="shared" si="5"/>
+        <v>0.85</v>
+      </c>
+      <c r="I11" s="12">
+        <f ca="1" t="shared" si="6"/>
+        <v>0.86</v>
+      </c>
+      <c r="J11" s="12">
+        <f ca="1" t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="27" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="9">
+        <v>7</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="11">
+        <f ca="1" t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D12" s="11">
+        <f ca="1" t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E12" s="11">
+        <f ca="1" t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="F12" s="11">
+        <f ca="1" t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <f ca="1" t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="H12" s="12">
+        <f ca="1" t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="I12" s="12">
+        <f ca="1" t="shared" si="6"/>
+        <v>0.65</v>
+      </c>
+      <c r="J12" s="12">
+        <f ca="1" t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="27" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="9">
+        <v>8</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="11">
+        <f ca="1" t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D13" s="11">
+        <f ca="1" t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E13" s="11">
+        <f ca="1" t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="F13" s="11">
+        <f ca="1" t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <f ca="1" t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="H13" s="12">
+        <f ca="1" t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="I13" s="12">
+        <f ca="1" t="shared" si="6"/>
+        <v>0.95</v>
+      </c>
+      <c r="J13" s="12">
+        <f ca="1" t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="27" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="9">
+        <v>9</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="11">
+        <f ca="1" t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D14" s="11">
+        <f ca="1" t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="E14" s="11">
+        <f ca="1" t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="F14" s="11">
+        <f ca="1" t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
+        <f ca="1" t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="H14" s="12">
+        <f ca="1" t="shared" si="5"/>
+        <v>0.95</v>
+      </c>
+      <c r="I14" s="12">
+        <f ca="1" t="shared" si="6"/>
+        <v>0.67</v>
+      </c>
+      <c r="J14" s="12">
+        <f ca="1" t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="27" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="9">
+        <v>10</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="11">
+        <f ca="1" t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D15" s="11">
+        <f ca="1" t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E15" s="11">
+        <f ca="1" t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="F15" s="11">
+        <f ca="1" t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="12">
+        <f ca="1" t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="H15" s="12">
+        <f ca="1" t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="I15" s="12">
+        <f ca="1" t="shared" si="6"/>
+        <v>0.84</v>
+      </c>
+      <c r="J15" s="12">
+        <f ca="1" t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K15" s="27" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="9">
+        <v>11</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="11">
+        <f ca="1" t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D16" s="11">
+        <f ca="1" t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="E16" s="11">
+        <f ca="1" t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="F16" s="11">
+        <f ca="1" t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="12">
+        <f ca="1" t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="12">
+        <f ca="1" t="shared" si="5"/>
+        <v>0.95</v>
+      </c>
+      <c r="I16" s="12">
+        <f ca="1" t="shared" si="6"/>
+        <v>0.93</v>
+      </c>
+      <c r="J16" s="12">
+        <f ca="1" t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="27" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="9">
+        <v>12</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
+      <c r="C17" s="11">
+        <f ca="1" t="shared" ref="C17:C22" si="9">RANDBETWEEN(8,10)</f>
+        <v>9</v>
+      </c>
+      <c r="D17" s="11">
+        <f ca="1" t="shared" ref="D17:D22" si="10">RANDBETWEEN(16,20)</f>
+        <v>20</v>
+      </c>
+      <c r="E17" s="11">
+        <f ca="1" t="shared" ref="E17:E22" si="11">RANDBETWEEN(60,100)</f>
+        <v>95</v>
+      </c>
+      <c r="F17" s="11">
+        <f ca="1" t="shared" ref="F17:F22" si="12">RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
+        <f ca="1" t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="H17" s="12">
+        <f ca="1" t="shared" si="5"/>
         <v>1</v>
       </c>
+      <c r="I17" s="12">
+        <f ca="1" t="shared" si="6"/>
+        <v>0.95</v>
+      </c>
+      <c r="J17" s="12">
+        <f ca="1" t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="27" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>No</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="18" spans="1:11">
+      <c r="A18" s="9">
+        <v>13</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="11">
+        <f ca="1" t="shared" si="9"/>
         <v>8</v>
       </c>
+      <c r="D18" s="11">
+        <f ca="1" t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="E18" s="11">
+        <f ca="1" t="shared" si="11"/>
+        <v>97</v>
+      </c>
+      <c r="F18" s="11">
+        <f ca="1" t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="12">
+        <f ca="1" t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="H18" s="12">
+        <f ca="1" t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="I18" s="12">
+        <f ca="1" t="shared" si="6"/>
+        <v>0.97</v>
+      </c>
+      <c r="J18" s="12">
+        <f ca="1" t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="27" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="2" t="s">
+    <row r="19" spans="1:11">
+      <c r="A19" s="9">
+        <v>14</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="11">
+        <f ca="1" t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>93</v>
-      </c>
-      <c r="F4">
+      <c r="D19" s="11">
+        <f ca="1" t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="E19" s="11">
+        <f ca="1" t="shared" si="11"/>
+        <v>88</v>
+      </c>
+      <c r="F19" s="11">
+        <f ca="1" t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="12">
+        <f ca="1">C19/$C$5</f>
+        <v>0.9</v>
+      </c>
+      <c r="H19" s="12">
+        <f ca="1" t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="H4" s="3">
-        <f>C4/C$2</f>
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
-        <f>D4/D$2</f>
-        <v>0.95</v>
-      </c>
-      <c r="J4" s="3">
-        <f>E4/E$2</f>
-        <v>0.93</v>
-      </c>
-      <c r="K4" s="3">
-        <f>F4/F$2</f>
-        <v>1</v>
-      </c>
-      <c r="M4" t="b">
-        <f>OR(H4&lt;50%,I4&lt;50%,J4&lt;50%,K4&lt;50%)</f>
+      <c r="I19" s="12">
+        <f ca="1" t="shared" si="6"/>
+        <v>0.88</v>
+      </c>
+      <c r="J19" s="12">
+        <f ca="1" t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="K19" s="27" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>No</v>
+      </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
+    <row r="20" spans="1:11">
+      <c r="A20" s="9">
+        <v>15</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="11">
+        <f ca="1" t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
-        <f t="shared" ref="H5:H20" si="0">C5/C$2</f>
+      <c r="D20" s="11">
+        <f ca="1" t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="E20" s="11">
+        <f ca="1" t="shared" si="11"/>
+        <v>89</v>
+      </c>
+      <c r="F20" s="11">
+        <f ca="1" t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="12">
+        <f ca="1" t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="I5" s="3">
-        <f>D5/D$2</f>
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <f>E5/E$2</f>
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <f>F5/F$2</f>
-        <v>1</v>
-      </c>
-      <c r="M5" t="b">
-        <f t="shared" ref="M5:M20" si="1">OR(H5&lt;50%,I5&lt;50%,J5&lt;50%,K5&lt;50%)</f>
+      <c r="H20" s="12">
+        <f ca="1" t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="I20" s="12">
+        <f ca="1" t="shared" si="6"/>
+        <v>0.89</v>
+      </c>
+      <c r="J20" s="12">
+        <f ca="1" t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="K20" s="27" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>No</v>
+      </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
+    <row r="21" spans="1:11">
+      <c r="A21" s="9">
+        <v>16</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="11">
+        <f ca="1" t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="D6">
+      <c r="D21" s="11">
+        <f ca="1" t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="E21" s="11">
+        <f ca="1" t="shared" si="11"/>
+        <v>76</v>
+      </c>
+      <c r="F21" s="11">
+        <f ca="1" t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="12">
+        <f ca="1" t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="H21" s="12">
+        <f ca="1" t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="I21" s="12">
+        <f ca="1" t="shared" si="6"/>
+        <v>0.76</v>
+      </c>
+      <c r="J21" s="12">
+        <f ca="1" t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="27" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="22" ht="15.25" spans="1:11">
+      <c r="A22" s="13">
         <v>17</v>
       </c>
-      <c r="E6">
-        <v>82</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <f t="shared" si="0"/>
+      <c r="B22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="15">
+        <f ca="1" t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="D22" s="15">
+        <f ca="1" t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="E22" s="15">
+        <f ca="1" t="shared" si="11"/>
+        <v>96</v>
+      </c>
+      <c r="F22" s="15">
+        <f ca="1" t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="16">
+        <f ca="1" t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="I6" s="3">
-        <f>D6/D$2</f>
+      <c r="H22" s="16">
+        <f ca="1" t="shared" si="5"/>
         <v>0.85</v>
       </c>
-      <c r="J6" s="3">
-        <f>E6/E$2</f>
-        <v>0.82</v>
-      </c>
-      <c r="K6" s="3">
-        <f>F6/F$2</f>
-        <v>1</v>
-      </c>
-      <c r="M6" t="b">
-        <f t="shared" si="1"/>
+      <c r="I22" s="16">
+        <f ca="1" t="shared" si="6"/>
+        <v>0.96</v>
+      </c>
+      <c r="J22" s="16">
+        <f ca="1" t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>73</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="I7" s="3">
-        <f>D7/D$2</f>
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="3">
-        <f>E7/E$2</f>
-        <v>0.73</v>
-      </c>
-      <c r="K7" s="3">
-        <f>F7/F$2</f>
-        <v>1</v>
-      </c>
-      <c r="M7" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>59</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I8" s="3">
-        <f>D8/D$2</f>
-        <v>1</v>
-      </c>
-      <c r="J8" s="3">
-        <f>E8/E$2</f>
-        <v>0.59</v>
-      </c>
-      <c r="K8" s="3">
-        <f>F8/F$2</f>
-        <v>1</v>
-      </c>
-      <c r="M8" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>17</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="I9" s="3">
-        <f>D9/D$2</f>
-        <v>0.85</v>
-      </c>
-      <c r="J9" s="3">
-        <f>E9/E$2</f>
-        <v>1</v>
-      </c>
-      <c r="K9" s="3">
-        <f>F9/F$2</f>
-        <v>1</v>
-      </c>
-      <c r="M9" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="I10" s="3">
-        <f>D10/D$2</f>
-        <v>1</v>
-      </c>
-      <c r="J10" s="3">
-        <f>E10/E$2</f>
-        <v>1</v>
-      </c>
-      <c r="K10" s="3">
-        <f>F10/F$2</f>
-        <v>0</v>
-      </c>
-      <c r="M10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="I11" s="3">
-        <f>D11/D$2</f>
-        <v>0.3</v>
-      </c>
-      <c r="J11" s="3">
-        <f>E11/E$2</f>
-        <v>1</v>
-      </c>
-      <c r="K11" s="3">
-        <f>F11/F$2</f>
-        <v>1</v>
-      </c>
-      <c r="M11" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>67</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I12" s="3">
-        <f>D12/D$2</f>
-        <v>1</v>
-      </c>
-      <c r="J12" s="3">
-        <f>E12/E$2</f>
-        <v>0.67</v>
-      </c>
-      <c r="K12" s="3">
-        <f>F12/F$2</f>
-        <v>1</v>
-      </c>
-      <c r="M12" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13">
-        <v>9</v>
-      </c>
-      <c r="D13">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>70</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="I13" s="3">
-        <f>D13/D$2</f>
-        <v>1</v>
-      </c>
-      <c r="J13" s="3">
-        <f>E13/E$2</f>
-        <v>0.7</v>
-      </c>
-      <c r="K13" s="3">
-        <f>F13/F$2</f>
-        <v>1</v>
-      </c>
-      <c r="M13" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14">
-        <v>19</v>
-      </c>
-      <c r="E14">
-        <v>80</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I14" s="3">
-        <f>D14/D$2</f>
-        <v>0.95</v>
-      </c>
-      <c r="J14" s="3">
-        <f>E14/E$2</f>
-        <v>0.8</v>
-      </c>
-      <c r="K14" s="3">
-        <f>F14/F$2</f>
-        <v>1</v>
-      </c>
-      <c r="M14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>17</v>
-      </c>
-      <c r="E15">
-        <v>90</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="I15" s="3">
-        <f>D15/D$2</f>
-        <v>0.85</v>
-      </c>
-      <c r="J15" s="3">
-        <f>E15/E$2</f>
-        <v>0.9</v>
-      </c>
-      <c r="K15" s="3">
-        <f>F15/F$2</f>
-        <v>1</v>
-      </c>
-      <c r="M15" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16">
-        <v>9</v>
-      </c>
-      <c r="D16">
-        <v>19</v>
-      </c>
-      <c r="E16">
-        <v>45</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="I16" s="3">
-        <f>D16/D$2</f>
-        <v>0.95</v>
-      </c>
-      <c r="J16" s="3">
-        <f>E16/E$2</f>
-        <v>0.45</v>
-      </c>
-      <c r="K16" s="3">
-        <f>F16/F$2</f>
-        <v>0</v>
-      </c>
-      <c r="M16" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17">
-        <v>7</v>
-      </c>
-      <c r="D17">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>90</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="0"/>
-        <v>0.7</v>
-      </c>
-      <c r="I17" s="3">
-        <f>D17/D$2</f>
-        <v>1</v>
-      </c>
-      <c r="J17" s="3">
-        <f>E17/E$2</f>
-        <v>0.9</v>
-      </c>
-      <c r="K17" s="3">
-        <f>F17/F$2</f>
-        <v>1</v>
-      </c>
-      <c r="M17" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <v>80</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I18" s="3">
-        <f>D18/D$2</f>
-        <v>0.5</v>
-      </c>
-      <c r="J18" s="3">
-        <f>E18/E$2</f>
-        <v>0.8</v>
-      </c>
-      <c r="K18" s="3">
-        <f>F18/F$2</f>
-        <v>1</v>
-      </c>
-      <c r="M18" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19">
-        <v>11</v>
-      </c>
-      <c r="D19">
-        <v>20</v>
-      </c>
-      <c r="E19">
-        <v>69</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1</v>
-      </c>
-      <c r="I19" s="3">
-        <f>D19/D$2</f>
-        <v>1</v>
-      </c>
-      <c r="J19" s="3">
-        <f>E19/E$2</f>
-        <v>0.69</v>
-      </c>
-      <c r="K19" s="3">
-        <f>F19/F$2</f>
-        <v>1</v>
-      </c>
-      <c r="M19" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20">
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <v>14</v>
-      </c>
-      <c r="E20">
-        <v>90</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I20" s="3">
-        <f>D20/D$2</f>
-        <v>0.7</v>
-      </c>
-      <c r="J20" s="3">
-        <f>E20/E$2</f>
-        <v>0.9</v>
-      </c>
-      <c r="K20" s="3">
-        <f>F20/F$2</f>
-        <v>1</v>
-      </c>
-      <c r="M20" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22">
-        <f t="shared" ref="C22:K22" si="2">MAX(C4:C20)</f>
-        <v>11</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H22" s="4">
-        <f t="shared" si="2"/>
-        <v>1.1</v>
-      </c>
-      <c r="I22" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J22" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K22" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="K22" s="28" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>No</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23">
-        <f t="shared" ref="C23:K23" si="3">MIN(C4:C20)</f>
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="I23" s="4">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
-      </c>
-      <c r="J23" s="4">
-        <f t="shared" si="3"/>
-        <v>0.45</v>
-      </c>
-      <c r="K23" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24">
-        <f t="shared" ref="C24:K24" si="4">AVERAGE(C4:C20)</f>
-        <v>8.94117647058824</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="4"/>
-        <v>16.9411764705882</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="4"/>
-        <v>81.6470588235294</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="4"/>
-        <v>0.882352941176471</v>
-      </c>
-      <c r="H24" s="4">
-        <f t="shared" si="4"/>
-        <v>0.894117647058823</v>
-      </c>
-      <c r="I24" s="4">
-        <f t="shared" si="4"/>
-        <v>0.847058823529412</v>
-      </c>
-      <c r="J24" s="4">
-        <f t="shared" si="4"/>
-        <v>0.816470588235294</v>
-      </c>
-      <c r="K24" s="4">
-        <f t="shared" si="4"/>
-        <v>0.882352941176471</v>
-      </c>
+      <c r="A24" s="17"/>
+      <c r="B24" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="21">
+        <f ca="1">MAX(C6:C22)</f>
+        <v>10</v>
+      </c>
+      <c r="D24" s="21">
+        <f ca="1">MAX(D6:D22)</f>
+        <v>20</v>
+      </c>
+      <c r="E24" s="21">
+        <f ca="1">MAX(E6:E22)</f>
+        <v>97</v>
+      </c>
+      <c r="F24" s="21">
+        <f ca="1">MAX(F6:F22)</f>
+        <v>1</v>
+      </c>
+      <c r="G24" s="21">
+        <f ca="1">MAX(G6:G22)</f>
+        <v>1</v>
+      </c>
+      <c r="H24" s="21">
+        <f ca="1">MAX(H6:H22)</f>
+        <v>1</v>
+      </c>
+      <c r="I24" s="21">
+        <f ca="1">MAX(I6:I22)</f>
+        <v>0.97</v>
+      </c>
+      <c r="J24" s="21">
+        <f ca="1">MAX(J6:J22)</f>
+        <v>1</v>
+      </c>
+      <c r="K24" s="29"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="17"/>
+      <c r="B25" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="21">
+        <f ca="1">MIN(C6:C22)</f>
+        <v>8</v>
+      </c>
+      <c r="D25" s="21">
+        <f ca="1">MIN(D6:D22)</f>
+        <v>16</v>
+      </c>
+      <c r="E25" s="21">
+        <f ca="1">MIN(E6:E22)</f>
+        <v>65</v>
+      </c>
+      <c r="F25" s="21">
+        <f ca="1">MIN(F6:F22)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="21">
+        <f ca="1">MIN(G6:G22)</f>
+        <v>0.8</v>
+      </c>
+      <c r="H25" s="21">
+        <f ca="1">MIN(H6:H22)</f>
+        <v>0.8</v>
+      </c>
+      <c r="I25" s="21">
+        <f ca="1">MIN(I6:I22)</f>
+        <v>0.65</v>
+      </c>
+      <c r="J25" s="21">
+        <f ca="1">MIN(J6:J22)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="29"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="17"/>
+      <c r="B26" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="21">
+        <f ca="1">AVERAGE(C6:C22)</f>
+        <v>8.58823529411765</v>
+      </c>
+      <c r="D26" s="21">
+        <f ca="1">AVERAGE(D6:D22)</f>
+        <v>18</v>
+      </c>
+      <c r="E26" s="21">
+        <f ca="1">AVERAGE(E6:E22)</f>
+        <v>85.0588235294118</v>
+      </c>
+      <c r="F26" s="21">
+        <f ca="1">AVERAGE(F6:F22)</f>
+        <v>0.411764705882353</v>
+      </c>
+      <c r="G26" s="21">
+        <f ca="1">AVERAGE(G6:G22)</f>
+        <v>0.858823529411765</v>
+      </c>
+      <c r="H26" s="21">
+        <f ca="1">AVERAGE(H6:H22)</f>
+        <v>0.9</v>
+      </c>
+      <c r="I26" s="21">
+        <f ca="1">AVERAGE(I6:I22)</f>
+        <v>0.850588235294118</v>
+      </c>
+      <c r="J26" s="21">
+        <f ca="1">AVERAGE(J6:J22)</f>
+        <v>0.411764705882353</v>
+      </c>
+      <c r="K26" s="29"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="17"/>
+      <c r="B27" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="31">
+        <f ca="1">COUNTIF(K6:K22,"Yes")</f>
+        <v>7</v>
+      </c>
+      <c r="K27" s="17"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="24"/>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="24"/>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="24"/>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="24"/>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="24"/>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="24"/>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="24"/>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" s="24"/>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" s="24"/>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" s="24"/>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" s="24"/>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" s="24"/>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" s="24"/>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" s="24"/>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47" s="24"/>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="D48" s="24"/>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="24"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:C20">
-    <cfRule type="iconSet" priority="6">
-      <iconSet iconSet="4TrafficLights">
+  <mergeCells count="6">
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="K3:K5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="K6:K22">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
       </iconSet>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D20">
-    <cfRule type="iconSet" priority="5">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E20">
-    <cfRule type="iconSet" priority="4">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F20">
-    <cfRule type="iconSet" priority="3">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M20">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
       <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:K20">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
-      <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Gradebook.xlsx
+++ b/Gradebook.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="7510"/>
+    <workbookView windowWidth="19200" windowHeight="7510"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet_Main" sheetId="1" r:id="rId1"/>
+    <sheet name="GradeBook_Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+  <si>
+    <t>Based on the provided Gradebook_Main sheet, which contains employee names, their scores and percentages in Safety Test, Company Philosophy Test, Financial Skills Test, and Drug Test, as well as an indicator for whether the employee needs to be fired, answer the following:
+1)Analyze the relationship between the test results (both raw scores and percentages) and the "Employee Need to be Fired" status.
+2)Which specific test(s) or performance thresholds most strongly correlate with an employee being marked as "Yes" for needing to be fired?
+3)Support your answer by referencing patterns or trends visible in the data table and the charts (bar graphs and line graphs) for each test result and the overall employee performance.
+4)If applicable, discuss how the Drug Test results (pass/fail) impact the firing decision compared to the other tests.
+Provide a thorough explanation, using evidence from both the numerical data and the visualizations in the sheet.</t>
+  </si>
   <si>
     <t>Sr. NO</t>
   </si>
@@ -53,7 +61,13 @@
     <t>Maximum Score</t>
   </si>
   <si>
+    <t>Pass/Fail (0/1)</t>
+  </si>
+  <si>
     <t>Maximum Percentage</t>
+  </si>
+  <si>
+    <t>Pass/Fail (0% / 100%)</t>
   </si>
   <si>
     <t>YANG JON</t>
@@ -118,6 +132,9 @@
   <si>
     <t xml:space="preserve">Total Number of employee need to be fired are </t>
   </si>
+  <si>
+    <t>Observing Table and charts, We Conclude that Drug test is most strongly correlate with an employee being marked as "Yes" for needing to be fired.</t>
+  </si>
 </sst>
 </file>
 
@@ -129,7 +146,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +164,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -155,11 +173,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -306,7 +339,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,19 +348,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
+        <fgColor theme="6" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
+        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,7 +557,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -542,19 +569,55 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -597,19 +660,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -640,7 +690,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -662,6 +714,35 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -830,186 +911,204 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1021,31 +1120,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1054,8 +1162,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1418,7 +1532,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet_Main!$B$6:$B$22</c:f>
+              <c:f>GradeBook_Main!$B$11:$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -1477,60 +1591,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet_Main!$D$6:$D$22</c:f>
+              <c:f>GradeBook_Main!$D$11:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>18</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1788,6 +1902,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{5bdc22f4-9b02-445a-956d-9305eebfcea1}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1900,7 +2019,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet_Main!$B$6:$B$22</c:f>
+              <c:f>GradeBook_Main!$B$11:$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -1959,60 +2078,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet_Main!$E$6:$E$22</c:f>
+              <c:f>GradeBook_Main!$E$11:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>79</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>94</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="13">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>82</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2270,6 +2389,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{5e8006cf-23e1-4738-981e-94f59684fea5}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2379,7 +2503,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet_Main!$B$6:$B$22</c:f>
+              <c:f>GradeBook_Main!$B$11:$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -2438,36 +2562,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet_Main!$C$6:$C$22</c:f>
+              <c:f>GradeBook_Main!$C$11:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>8</c:v>
@@ -2476,16 +2600,16 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>10</c:v>
@@ -2844,7 +2968,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet_Main!$B$6:$B$22</c:f>
+              <c:f>GradeBook_Main!$B$11:$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -2903,7 +3027,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet_Main!$F$6:$F$22</c:f>
+              <c:f>GradeBook_Main!$F$11:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2911,16 +3035,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2929,13 +3053,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
@@ -2950,10 +3074,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1</c:v>
@@ -3194,6 +3318,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{603ed4b5-acf3-4e59-9c00-febe895ba409}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3309,7 +3438,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet_Main!$C$3</c:f>
+              <c:f>GradeBook_Main!$C$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3335,7 +3464,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet_Main!$B$6:$B$22</c:f>
+              <c:f>GradeBook_Main!$B$11:$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -3394,36 +3523,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet_Main!$C$6:$C$22</c:f>
+              <c:f>GradeBook_Main!$C$11:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>8</c:v>
@@ -3432,16 +3561,16 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>10</c:v>
@@ -3459,7 +3588,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet_Main!$D$3</c:f>
+              <c:f>GradeBook_Main!$D$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3485,7 +3614,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet_Main!$B$6:$B$22</c:f>
+              <c:f>GradeBook_Main!$B$11:$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -3544,60 +3673,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet_Main!$D$6:$D$22</c:f>
+              <c:f>GradeBook_Main!$D$11:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>18</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3609,7 +3738,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet_Main!$E$3</c:f>
+              <c:f>GradeBook_Main!$E$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3635,7 +3764,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet_Main!$B$6:$B$22</c:f>
+              <c:f>GradeBook_Main!$B$11:$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -3694,60 +3823,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet_Main!$E$6:$E$22</c:f>
+              <c:f>GradeBook_Main!$E$11:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>79</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>94</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="13">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>82</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3759,7 +3888,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet_Main!$F$3</c:f>
+              <c:f>GradeBook_Main!$F$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3785,7 +3914,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet_Main!$B$6:$B$22</c:f>
+              <c:f>GradeBook_Main!$B$11:$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -3844,7 +3973,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet_Main!$F$6:$F$22</c:f>
+              <c:f>GradeBook_Main!$F$11:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3852,16 +3981,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3870,13 +3999,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
@@ -3891,10 +4020,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1</c:v>
@@ -4101,6 +4230,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{e0cc20a2-3ec0-429e-88e9-f21479ed39a1}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4214,7 +4348,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet_Main!$C$3</c:f>
+              <c:f>GradeBook_Main!$C$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4240,7 +4374,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet_Main!$B$6:$B$22</c:f>
+              <c:f>GradeBook_Main!$B$11:$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -4299,36 +4433,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet_Main!$G$6:$G$22</c:f>
+              <c:f>GradeBook_Main!$G$11:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.8</c:v>
@@ -4337,16 +4471,16 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1</c:v>
@@ -4364,7 +4498,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet_Main!$D$3</c:f>
+              <c:f>GradeBook_Main!$D$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4390,7 +4524,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet_Main!$B$6:$B$22</c:f>
+              <c:f>GradeBook_Main!$B$11:$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -4449,60 +4583,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet_Main!$H$6:$H$22</c:f>
+              <c:f>GradeBook_Main!$H$11:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.8</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.85</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.9</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.8</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.95</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4514,7 +4648,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet_Main!$E$3</c:f>
+              <c:f>GradeBook_Main!$E$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4540,7 +4674,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet_Main!$B$6:$B$22</c:f>
+              <c:f>GradeBook_Main!$B$11:$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -4599,60 +4733,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet_Main!$I$6:$I$22</c:f>
+              <c:f>GradeBook_Main!$I$11:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.79</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.94</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="13">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.82</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4664,7 +4798,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet_Main!$F$3</c:f>
+              <c:f>GradeBook_Main!$F$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4690,7 +4824,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet_Main!$B$6:$B$22</c:f>
+              <c:f>GradeBook_Main!$B$11:$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -4749,7 +4883,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet_Main!$J$6:$J$22</c:f>
+              <c:f>GradeBook_Main!$J$11:$J$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4757,16 +4891,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4775,13 +4909,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
@@ -4796,10 +4930,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1</c:v>
@@ -5004,6 +5138,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{50b107f6-26f3-4d73-aa10-b211e7cf8a40}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8332,15 +8471,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>383540</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>131445</xdr:rowOff>
+      <xdr:colOff>402590</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>168910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>263525</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>106045</xdr:rowOff>
+      <xdr:colOff>282575</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8348,8 +8487,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10531475" y="3446145"/>
-        <a:ext cx="6711315" cy="2746375"/>
+        <a:off x="11716385" y="3502660"/>
+        <a:ext cx="6711315" cy="2924175"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8362,15 +8501,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>509905</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>187325</xdr:rowOff>
+      <xdr:colOff>602615</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>18415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>239395</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>46355</xdr:rowOff>
+      <xdr:colOff>332105</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>61595</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8378,8 +8517,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17489170" y="555625"/>
-        <a:ext cx="6692900" cy="2805430"/>
+        <a:off x="18747740" y="202565"/>
+        <a:ext cx="6560820" cy="3192780"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8392,15 +8531,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>396875</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
+      <xdr:colOff>378460</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>166370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>26035</xdr:rowOff>
+      <xdr:colOff>294005</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>135255</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8408,8 +8547,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10544810" y="609600"/>
-        <a:ext cx="6746875" cy="2731135"/>
+        <a:off x="11692255" y="166370"/>
+        <a:ext cx="6746875" cy="3118485"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8422,15 +8561,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>471170</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>157480</xdr:rowOff>
+      <xdr:colOff>601345</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>132080</xdr:rowOff>
+      <xdr:colOff>328295</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1270</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8438,8 +8577,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17450435" y="3472180"/>
-        <a:ext cx="6690360" cy="2746375"/>
+        <a:off x="18746470" y="3544570"/>
+        <a:ext cx="6558280" cy="2949575"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8452,15 +8591,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>6985</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>372745</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>139065</xdr:rowOff>
+      <xdr:colOff>399415</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>180340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8468,8 +8607,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="335280" y="6461760"/>
-        <a:ext cx="10185400" cy="7129780"/>
+        <a:off x="361950" y="8077835"/>
+        <a:ext cx="11351260" cy="7129780"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8482,15 +8621,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>276860</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>170180</xdr:rowOff>
+      <xdr:colOff>239395</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>283210</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>151130</xdr:rowOff>
+      <xdr:colOff>245745</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>1270</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8498,8 +8637,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11045825" y="6440805"/>
-        <a:ext cx="13180060" cy="7162800"/>
+        <a:off x="12174220" y="7319645"/>
+        <a:ext cx="13047980" cy="7156450"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8770,1082 +8909,1198 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:M49"/>
+  <dimension ref="A1:AO54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="31" zoomScaleNormal="31" workbookViewId="0">
-      <selection activeCell="AR17" sqref="AR17"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
+    <col min="1" max="1" width="6.81818181818182" customWidth="1"/>
     <col min="2" max="2" width="20.0909090909091" customWidth="1"/>
-    <col min="3" max="4" width="14.1090909090909" customWidth="1"/>
-    <col min="5" max="5" width="12.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="8.1" customWidth="1"/>
-    <col min="7" max="7" width="9.20909090909091" customWidth="1"/>
-    <col min="8" max="8" width="12.8181818181818" customWidth="1"/>
-    <col min="9" max="9" width="12.8181818181818"/>
-    <col min="10" max="10" width="11.3909090909091" customWidth="1"/>
-    <col min="11" max="11" width="12.0363636363636" customWidth="1"/>
+    <col min="3" max="9" width="12.8181818181818" customWidth="1"/>
+    <col min="10" max="10" width="18.7272727272727" customWidth="1"/>
+    <col min="11" max="11" width="17.7181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="43.5" spans="1:11">
-      <c r="A3" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>6</v>
-      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="31"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="32"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="26"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="7">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="32"/>
+    </row>
+    <row r="6" ht="45" customHeight="1" spans="1:11">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="33"/>
+    </row>
+    <row r="8" ht="43.5" spans="1:11">
+      <c r="A8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="7">
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="35"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11">
+        <v>10</v>
+      </c>
+      <c r="D10" s="11">
         <v>20</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E10" s="11">
         <v>100</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F10" s="13"/>
+      <c r="G10" s="14">
         <v>1</v>
       </c>
-      <c r="G5" s="8">
+      <c r="H10" s="14">
         <v>1</v>
       </c>
-      <c r="H5" s="8">
+      <c r="I10" s="14">
         <v>1</v>
       </c>
-      <c r="I5" s="8">
+      <c r="J10" s="13"/>
+      <c r="K10" s="35"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="15">
         <v>1</v>
       </c>
-      <c r="J5" s="8">
-        <v>1</v>
-      </c>
-      <c r="K5" s="26"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="9">
-        <v>1</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="17">
         <f ca="1">RANDBETWEEN(8,10)</f>
         <v>8</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D11" s="17">
         <f ca="1">RANDBETWEEN(16,20)</f>
-        <v>16</v>
-      </c>
-      <c r="E6" s="11">
+        <v>18</v>
+      </c>
+      <c r="E11" s="17">
         <f ca="1">RANDBETWEEN(60,100)</f>
-        <v>75</v>
-      </c>
-      <c r="F6" s="11">
+        <v>87</v>
+      </c>
+      <c r="F11" s="17">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
-        <f ca="1">C6/$C$5</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="18">
+        <f ca="1">C11/$C$10</f>
         <v>0.8</v>
       </c>
-      <c r="H6" s="12">
-        <f ca="1">D6/$D$5</f>
-        <v>0.8</v>
-      </c>
-      <c r="I6" s="12">
-        <f ca="1">E6/$E$5</f>
-        <v>0.75</v>
-      </c>
-      <c r="J6" s="12">
-        <f ca="1">F6/$F$5</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="27" t="str">
-        <f ca="1">IF(OR(G6&lt;50%,H6&lt;50%,I6&lt;50%,J6=100%),"Yes","No")</f>
-        <v>No</v>
+      <c r="H11" s="18">
+        <f ca="1">D11/$D$10</f>
+        <v>0.9</v>
+      </c>
+      <c r="I11" s="18">
+        <f ca="1">E11/$E$10</f>
+        <v>0.87</v>
+      </c>
+      <c r="J11" s="18">
+        <f ca="1">F11/1</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="36" t="str">
+        <f ca="1">IF(OR(G11&lt;50%,H11&lt;50%,I11&lt;50%,J11=100%),"Yes","No")</f>
+        <v>Yes</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="9">
+    <row r="12" spans="1:11">
+      <c r="A12" s="15">
         <v>2</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="17">
+        <f ca="1" t="shared" ref="C12:C21" si="0">RANDBETWEEN(8,10)</f>
         <v>10</v>
       </c>
-      <c r="C7" s="11">
-        <f ca="1" t="shared" ref="C7:C16" si="0">RANDBETWEEN(8,10)</f>
-        <v>8</v>
-      </c>
-      <c r="D7" s="11">
-        <f ca="1" t="shared" ref="D7:D16" si="1">RANDBETWEEN(16,20)</f>
+      <c r="D12" s="17">
+        <f ca="1" t="shared" ref="D12:D21" si="1">RANDBETWEEN(16,20)</f>
         <v>19</v>
       </c>
-      <c r="E7" s="11">
-        <f ca="1" t="shared" ref="E7:E16" si="2">RANDBETWEEN(60,100)</f>
-        <v>79</v>
-      </c>
-      <c r="F7" s="11">
-        <f ca="1" t="shared" ref="F7:F16" si="3">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
-        <f ca="1" t="shared" ref="G7:G22" si="4">C7/$C$5</f>
-        <v>0.8</v>
-      </c>
-      <c r="H7" s="12">
-        <f ca="1" t="shared" ref="H7:H22" si="5">D7/$D$5</f>
+      <c r="E12" s="17">
+        <f ca="1" t="shared" ref="E12:E21" si="2">RANDBETWEEN(60,100)</f>
+        <v>96</v>
+      </c>
+      <c r="F12" s="17">
+        <f ca="1" t="shared" ref="F12:F21" si="3">RANDBETWEEN(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="18">
+        <f ca="1" t="shared" ref="G12:G27" si="4">C12/$C$10</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="18">
+        <f ca="1" t="shared" ref="H12:H27" si="5">D12/$D$10</f>
         <v>0.95</v>
       </c>
-      <c r="I7" s="12">
-        <f ca="1" t="shared" ref="I7:I22" si="6">E7/$E$5</f>
-        <v>0.79</v>
-      </c>
-      <c r="J7" s="12">
-        <f ca="1" t="shared" ref="J7:J22" si="7">F7/$F$5</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="27" t="str">
-        <f ca="1" t="shared" ref="K7:K22" si="8">IF(OR(G7&lt;50%,H7&lt;50%,I7&lt;50%,J7=100%),"Yes","No")</f>
-        <v>No</v>
+      <c r="I12" s="18">
+        <f ca="1" t="shared" ref="I12:I27" si="6">E12/$E$10</f>
+        <v>0.96</v>
+      </c>
+      <c r="J12" s="18">
+        <f ca="1" t="shared" ref="J12:J27" si="7">F12/1</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="36" t="str">
+        <f ca="1" t="shared" ref="K12:K27" si="8">IF(OR(G12&lt;50%,H12&lt;50%,I12&lt;50%,J12=100%),"Yes","No")</f>
+        <v>Yes</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="9">
+    <row r="13" spans="1:11">
+      <c r="A13" s="15">
         <v>3</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="17">
         <f ca="1" t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D13" s="17">
+        <f ca="1" t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E13" s="17">
+        <f ca="1" t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="F13" s="17">
+        <f ca="1" t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="18">
+        <f ca="1" t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="H13" s="18">
+        <f ca="1" t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="I13" s="18">
+        <f ca="1" t="shared" si="6"/>
+        <v>0.73</v>
+      </c>
+      <c r="J13" s="18">
+        <f ca="1" t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="36" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="15">
+        <v>4</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="17">
+        <f ca="1" t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D14" s="17">
+        <f ca="1" t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E14" s="17">
+        <f ca="1" t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="F14" s="17">
+        <f ca="1" t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="18">
+        <f ca="1" t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="18">
+        <f ca="1" t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="I14" s="18">
+        <f ca="1" t="shared" si="6"/>
+        <v>0.77</v>
+      </c>
+      <c r="J14" s="18">
+        <f ca="1" t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="36" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="15">
+        <v>5</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="17">
+        <f ca="1" t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D15" s="17">
+        <f ca="1" t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="E15" s="17">
+        <f ca="1" t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="F15" s="17">
+        <f ca="1" t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="18">
+        <f ca="1" t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="H15" s="18">
+        <f ca="1" t="shared" si="5"/>
+        <v>0.95</v>
+      </c>
+      <c r="I15" s="18">
+        <f ca="1" t="shared" si="6"/>
+        <v>0.83</v>
+      </c>
+      <c r="J15" s="18">
+        <f ca="1" t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="36" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="15">
+        <v>6</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="17">
+        <f ca="1" t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D16" s="17">
         <f ca="1" t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E16" s="17">
         <f ca="1" t="shared" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="F8" s="11">
+        <v>89</v>
+      </c>
+      <c r="F16" s="17">
+        <f ca="1" t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="18">
+        <f ca="1" t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="H16" s="18">
+        <f ca="1" t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="18">
+        <f ca="1" t="shared" si="6"/>
+        <v>0.89</v>
+      </c>
+      <c r="J16" s="18">
+        <f ca="1" t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="36" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="15">
+        <v>7</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="17">
+        <f ca="1" t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D17" s="17">
+        <f ca="1" t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E17" s="17">
+        <f ca="1" t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="F17" s="17">
         <f ca="1" t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G17" s="18">
         <f ca="1" t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H17" s="18">
         <f ca="1" t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I8" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="I17" s="18">
         <f ca="1" t="shared" si="6"/>
-        <v>0.96</v>
-      </c>
-      <c r="J8" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="J17" s="18">
         <f ca="1" t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="K8" s="27" t="str">
+      <c r="K17" s="36" t="str">
         <f ca="1" t="shared" si="8"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="9">
-        <v>4</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="11">
+    <row r="18" spans="1:11">
+      <c r="A18" s="15">
+        <v>8</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="17">
+        <f ca="1" t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D18" s="17">
+        <f ca="1" t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="E18" s="17">
+        <f ca="1" t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="F18" s="17">
+        <f ca="1" t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="18">
+        <f ca="1" t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H18" s="18">
+        <f ca="1" t="shared" si="5"/>
+        <v>0.85</v>
+      </c>
+      <c r="I18" s="18">
+        <f ca="1" t="shared" si="6"/>
+        <v>0.77</v>
+      </c>
+      <c r="J18" s="18">
+        <f ca="1" t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="36" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="15">
+        <v>9</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="17">
+        <f ca="1" t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D19" s="17">
+        <f ca="1" t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E19" s="17">
+        <f ca="1" t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="F19" s="17">
+        <f ca="1" t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="18">
+        <f ca="1" t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="H19" s="18">
+        <f ca="1" t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="I19" s="18">
+        <f ca="1" t="shared" si="6"/>
+        <v>0.93</v>
+      </c>
+      <c r="J19" s="18">
+        <f ca="1" t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="36" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="1:41">
+      <c r="A20" s="15">
+        <v>10</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="17">
         <f ca="1" t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D20" s="17">
+        <f ca="1" t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="E20" s="17">
+        <f ca="1" t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="F20" s="17">
+        <f ca="1" t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="18">
+        <f ca="1" t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="H20" s="18">
+        <f ca="1" t="shared" si="5"/>
+        <v>0.85</v>
+      </c>
+      <c r="I20" s="18">
+        <f ca="1" t="shared" si="6"/>
+        <v>0.73</v>
+      </c>
+      <c r="J20" s="18">
+        <f ca="1" t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="36" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="AO20" s="41"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:41">
+      <c r="A21" s="15">
+        <v>11</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="17">
+        <f ca="1" t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D21" s="17">
         <f ca="1" t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E21" s="17">
         <f ca="1" t="shared" si="2"/>
-        <v>71</v>
-      </c>
-      <c r="F9" s="11">
+        <v>82</v>
+      </c>
+      <c r="F21" s="17">
         <f ca="1" t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G9" s="12">
-        <f ca="1">C9/$C$5</f>
-        <v>0.8</v>
-      </c>
-      <c r="H9" s="12">
+      <c r="G21" s="18">
+        <f ca="1" t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="H21" s="18">
         <f ca="1" t="shared" si="5"/>
         <v>0.95</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I21" s="18">
         <f ca="1" t="shared" si="6"/>
-        <v>0.71</v>
-      </c>
-      <c r="J9" s="12">
+        <v>0.82</v>
+      </c>
+      <c r="J21" s="18">
         <f ca="1" t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="K9" s="27" t="str">
+      <c r="K21" s="36" t="str">
         <f ca="1" t="shared" si="8"/>
         <v>Yes</v>
       </c>
+      <c r="AO21" s="42"/>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="9">
-        <v>5</v>
-      </c>
-      <c r="B10" s="10" t="s">
+    <row r="22" ht="16.5" spans="1:41">
+      <c r="A22" s="15">
+        <v>12</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="17">
+        <f ca="1" t="shared" ref="C22:C27" si="9">RANDBETWEEN(8,10)</f>
+        <v>9</v>
+      </c>
+      <c r="D22" s="17">
+        <f ca="1" t="shared" ref="D22:D27" si="10">RANDBETWEEN(16,20)</f>
+        <v>16</v>
+      </c>
+      <c r="E22" s="17">
+        <f ca="1" t="shared" ref="E22:E27" si="11">RANDBETWEEN(60,100)</f>
+        <v>75</v>
+      </c>
+      <c r="F22" s="17">
+        <f ca="1" t="shared" ref="F22:F27" si="12">RANDBETWEEN(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G22" s="18">
+        <f ca="1" t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="H22" s="18">
+        <f ca="1" t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="I22" s="18">
+        <f ca="1" t="shared" si="6"/>
+        <v>0.75</v>
+      </c>
+      <c r="J22" s="18">
+        <f ca="1" t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="36" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="AO22" s="42"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:41">
+      <c r="A23" s="15">
         <v>13</v>
       </c>
-      <c r="C10" s="11">
-        <f ca="1" t="shared" si="0"/>
+      <c r="B23" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="17">
+        <f ca="1" t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="D10" s="11">
-        <f ca="1" t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="E10" s="11">
-        <f ca="1" t="shared" si="2"/>
+      <c r="D23" s="17">
+        <f ca="1" t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="E23" s="17">
+        <f ca="1" t="shared" si="11"/>
         <v>94</v>
       </c>
-      <c r="F10" s="11">
-        <f ca="1" t="shared" si="3"/>
+      <c r="F23" s="17">
+        <f ca="1" t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G23" s="18">
         <f ca="1" t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H23" s="18">
         <f ca="1" t="shared" si="5"/>
-        <v>0.8</v>
-      </c>
-      <c r="I10" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="I23" s="18">
         <f ca="1" t="shared" si="6"/>
         <v>0.94</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J23" s="18">
         <f ca="1" t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="K10" s="27" t="str">
+      <c r="K23" s="36" t="str">
         <f ca="1" t="shared" si="8"/>
         <v>Yes</v>
       </c>
+      <c r="AO23" s="42"/>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="9">
-        <v>6</v>
-      </c>
-      <c r="B11" s="10" t="s">
+    <row r="24" ht="16.5" spans="1:41">
+      <c r="A24" s="15">
         <v>14</v>
       </c>
-      <c r="C11" s="11">
-        <f ca="1" t="shared" si="0"/>
+      <c r="B24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="17">
+        <f ca="1" t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="D24" s="17">
+        <f ca="1" t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="E24" s="17">
+        <f ca="1" t="shared" si="11"/>
+        <v>76</v>
+      </c>
+      <c r="F24" s="17">
+        <f ca="1" t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="18">
+        <f ca="1" t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="H24" s="18">
+        <f ca="1" t="shared" si="5"/>
+        <v>0.85</v>
+      </c>
+      <c r="I24" s="18">
+        <f ca="1" t="shared" si="6"/>
+        <v>0.76</v>
+      </c>
+      <c r="J24" s="18">
+        <f ca="1" t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="36" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="AO24" s="42"/>
+    </row>
+    <row r="25" ht="16.5" spans="1:41">
+      <c r="A25" s="15">
+        <v>15</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="17">
+        <f ca="1" t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="D11" s="11">
-        <f ca="1" t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="E11" s="11">
-        <f ca="1" t="shared" si="2"/>
-        <v>86</v>
-      </c>
-      <c r="F11" s="11">
-        <f ca="1" t="shared" si="3"/>
+      <c r="D25" s="17">
+        <f ca="1" t="shared" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="E25" s="17">
+        <f ca="1" t="shared" si="11"/>
+        <v>62</v>
+      </c>
+      <c r="F25" s="17">
+        <f ca="1" t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G25" s="18">
         <f ca="1" t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H25" s="18">
+        <f ca="1" t="shared" si="5"/>
+        <v>0.95</v>
+      </c>
+      <c r="I25" s="18">
+        <f ca="1" t="shared" si="6"/>
+        <v>0.62</v>
+      </c>
+      <c r="J25" s="18">
+        <f ca="1" t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K25" s="36" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="AO25" s="41"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="15">
+        <v>16</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="17">
+        <f ca="1" t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="D26" s="17">
+        <f ca="1" t="shared" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="E26" s="17">
+        <f ca="1" t="shared" si="11"/>
+        <v>93</v>
+      </c>
+      <c r="F26" s="17">
+        <f ca="1" t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G26" s="18">
+        <f ca="1" t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H26" s="18">
+        <f ca="1" t="shared" si="5"/>
+        <v>0.95</v>
+      </c>
+      <c r="I26" s="18">
+        <f ca="1" t="shared" si="6"/>
+        <v>0.93</v>
+      </c>
+      <c r="J26" s="18">
+        <f ca="1" t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="36" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="27" ht="15.25" spans="1:11">
+      <c r="A27" s="19">
+        <v>17</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="21">
+        <f ca="1" t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="D27" s="21">
+        <f ca="1" t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="E27" s="21">
+        <f ca="1" t="shared" si="11"/>
+        <v>67</v>
+      </c>
+      <c r="F27" s="21">
+        <f ca="1" t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G27" s="22">
+        <f ca="1" t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="H27" s="22">
         <f ca="1" t="shared" si="5"/>
         <v>0.85</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I27" s="22">
         <f ca="1" t="shared" si="6"/>
-        <v>0.86</v>
-      </c>
-      <c r="J11" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="J27" s="22">
         <f ca="1" t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="K11" s="27" t="str">
+      <c r="K27" s="37" t="str">
         <f ca="1" t="shared" si="8"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="9">
-        <v>7</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="11">
-        <f ca="1" t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D12" s="11">
-        <f ca="1" t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="E12" s="11">
-        <f ca="1" t="shared" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="F12" s="11">
-        <f ca="1" t="shared" si="3"/>
+    <row r="28" spans="1:11">
+      <c r="A28" s="23"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+    </row>
+    <row r="29" ht="16.5" spans="1:41">
+      <c r="A29" s="23"/>
+      <c r="B29" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="17">
+        <f ca="1" t="shared" ref="C29:J29" si="13">MAX(C11:C27)</f>
+        <v>10</v>
+      </c>
+      <c r="D29" s="17">
+        <f ca="1" t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="E29" s="17">
+        <f ca="1" t="shared" si="13"/>
+        <v>96</v>
+      </c>
+      <c r="F29" s="17">
+        <f ca="1" t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="G29" s="17">
+        <f ca="1" t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H29" s="17">
+        <f ca="1" t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="I29" s="17">
+        <f ca="1" t="shared" si="13"/>
+        <v>0.96</v>
+      </c>
+      <c r="J29" s="17">
+        <f ca="1" t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="K29" s="38"/>
+      <c r="AO29" s="41"/>
+    </row>
+    <row r="30" ht="16.5" spans="1:41">
+      <c r="A30" s="23"/>
+      <c r="B30" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="17">
+        <f ca="1" t="shared" ref="C30:J30" si="14">MIN(C11:C27)</f>
+        <v>8</v>
+      </c>
+      <c r="D30" s="17">
+        <f ca="1" t="shared" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="E30" s="17">
+        <f ca="1" t="shared" si="14"/>
+        <v>62</v>
+      </c>
+      <c r="F30" s="17">
+        <f ca="1" t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G12" s="12">
-        <f ca="1" t="shared" si="4"/>
-        <v>0.9</v>
-      </c>
-      <c r="H12" s="12">
-        <f ca="1" t="shared" si="5"/>
-        <v>0.9</v>
-      </c>
-      <c r="I12" s="12">
-        <f ca="1" t="shared" si="6"/>
-        <v>0.65</v>
-      </c>
-      <c r="J12" s="12">
-        <f ca="1" t="shared" si="7"/>
+      <c r="G30" s="17">
+        <f ca="1" t="shared" si="14"/>
+        <v>0.8</v>
+      </c>
+      <c r="H30" s="17">
+        <f ca="1" t="shared" si="14"/>
+        <v>0.8</v>
+      </c>
+      <c r="I30" s="17">
+        <f ca="1" t="shared" si="14"/>
+        <v>0.62</v>
+      </c>
+      <c r="J30" s="17">
+        <f ca="1" t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K12" s="27" t="str">
-        <f ca="1" t="shared" si="8"/>
-        <v>No</v>
-      </c>
+      <c r="K30" s="38"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="AO30" s="41"/>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="9">
-        <v>8</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="11">
-        <f ca="1" t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D13" s="11">
-        <f ca="1" t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="E13" s="11">
-        <f ca="1" t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="F13" s="11">
-        <f ca="1" t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="12">
-        <f ca="1" t="shared" si="4"/>
-        <v>0.8</v>
-      </c>
-      <c r="H13" s="12">
-        <f ca="1" t="shared" si="5"/>
-        <v>0.8</v>
-      </c>
-      <c r="I13" s="12">
-        <f ca="1" t="shared" si="6"/>
-        <v>0.95</v>
-      </c>
-      <c r="J13" s="12">
-        <f ca="1" t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="27" t="str">
-        <f ca="1" t="shared" si="8"/>
-        <v>No</v>
-      </c>
+    <row r="31" ht="16.5" spans="1:41">
+      <c r="A31" s="23"/>
+      <c r="B31" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="17">
+        <f ca="1" t="shared" ref="C31:J31" si="15">AVERAGE(C11:C27)</f>
+        <v>8.94117647058824</v>
+      </c>
+      <c r="D31" s="17">
+        <f ca="1" t="shared" si="15"/>
+        <v>17.9411764705882</v>
+      </c>
+      <c r="E31" s="17">
+        <f ca="1" t="shared" si="15"/>
+        <v>81.2941176470588</v>
+      </c>
+      <c r="F31" s="17">
+        <f ca="1" t="shared" si="15"/>
+        <v>0.647058823529412</v>
+      </c>
+      <c r="G31" s="17">
+        <f ca="1" t="shared" si="15"/>
+        <v>0.894117647058824</v>
+      </c>
+      <c r="H31" s="17">
+        <f ca="1" t="shared" si="15"/>
+        <v>0.897058823529412</v>
+      </c>
+      <c r="I31" s="17">
+        <f ca="1" t="shared" si="15"/>
+        <v>0.812941176470588</v>
+      </c>
+      <c r="J31" s="17">
+        <f ca="1" t="shared" si="15"/>
+        <v>0.647058823529412</v>
+      </c>
+      <c r="K31" s="38"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="AO31" s="41"/>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="9">
-        <v>9</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="11">
-        <f ca="1" t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D14" s="11">
-        <f ca="1" t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="E14" s="11">
-        <f ca="1" t="shared" si="2"/>
-        <v>67</v>
-      </c>
-      <c r="F14" s="11">
-        <f ca="1" t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="12">
-        <f ca="1" t="shared" si="4"/>
-        <v>0.8</v>
-      </c>
-      <c r="H14" s="12">
-        <f ca="1" t="shared" si="5"/>
-        <v>0.95</v>
-      </c>
-      <c r="I14" s="12">
-        <f ca="1" t="shared" si="6"/>
-        <v>0.67</v>
-      </c>
-      <c r="J14" s="12">
-        <f ca="1" t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="27" t="str">
-        <f ca="1" t="shared" si="8"/>
-        <v>No</v>
-      </c>
+    <row r="32" ht="16.5" spans="1:41">
+      <c r="A32" s="23"/>
+      <c r="B32" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="40">
+        <f ca="1">COUNTIF(K11:K27,"Yes")</f>
+        <v>11</v>
+      </c>
+      <c r="K32" s="23"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="AO32" s="41"/>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="9">
-        <v>10</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="11">
-        <f ca="1" t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D15" s="11">
-        <f ca="1" t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="E15" s="11">
-        <f ca="1" t="shared" si="2"/>
-        <v>84</v>
-      </c>
-      <c r="F15" s="11">
-        <f ca="1" t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G15" s="12">
-        <f ca="1" t="shared" si="4"/>
-        <v>0.8</v>
-      </c>
-      <c r="H15" s="12">
-        <f ca="1" t="shared" si="5"/>
-        <v>0.9</v>
-      </c>
-      <c r="I15" s="12">
-        <f ca="1" t="shared" si="6"/>
-        <v>0.84</v>
-      </c>
-      <c r="J15" s="12">
-        <f ca="1" t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="K15" s="27" t="str">
-        <f ca="1" t="shared" si="8"/>
-        <v>Yes</v>
-      </c>
+    <row r="33" ht="16.5" spans="1:41">
+      <c r="A33" s="23"/>
+      <c r="B33" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="23"/>
+      <c r="AO33" s="41"/>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="9">
-        <v>11</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="11">
-        <f ca="1" t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D16" s="11">
-        <f ca="1" t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="E16" s="11">
-        <f ca="1" t="shared" si="2"/>
-        <v>93</v>
-      </c>
-      <c r="F16" s="11">
-        <f ca="1" t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G16" s="12">
-        <f ca="1" t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H16" s="12">
-        <f ca="1" t="shared" si="5"/>
-        <v>0.95</v>
-      </c>
-      <c r="I16" s="12">
-        <f ca="1" t="shared" si="6"/>
-        <v>0.93</v>
-      </c>
-      <c r="J16" s="12">
-        <f ca="1" t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="K16" s="27" t="str">
-        <f ca="1" t="shared" si="8"/>
-        <v>Yes</v>
-      </c>
+    <row r="34" ht="14" customHeight="1" spans="2:41">
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="AO34" s="41"/>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="9">
-        <v>12</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="11">
-        <f ca="1" t="shared" ref="C17:C22" si="9">RANDBETWEEN(8,10)</f>
-        <v>9</v>
-      </c>
-      <c r="D17" s="11">
-        <f ca="1" t="shared" ref="D17:D22" si="10">RANDBETWEEN(16,20)</f>
-        <v>20</v>
-      </c>
-      <c r="E17" s="11">
-        <f ca="1" t="shared" ref="E17:E22" si="11">RANDBETWEEN(60,100)</f>
-        <v>95</v>
-      </c>
-      <c r="F17" s="11">
-        <f ca="1" t="shared" ref="F17:F22" si="12">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="12">
-        <f ca="1" t="shared" si="4"/>
-        <v>0.9</v>
-      </c>
-      <c r="H17" s="12">
-        <f ca="1" t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I17" s="12">
-        <f ca="1" t="shared" si="6"/>
-        <v>0.95</v>
-      </c>
-      <c r="J17" s="12">
-        <f ca="1" t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="27" t="str">
-        <f ca="1" t="shared" si="8"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="9">
-        <v>13</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="11">
-        <f ca="1" t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="D18" s="11">
-        <f ca="1" t="shared" si="10"/>
-        <v>18</v>
-      </c>
-      <c r="E18" s="11">
-        <f ca="1" t="shared" si="11"/>
-        <v>97</v>
-      </c>
-      <c r="F18" s="11">
-        <f ca="1" t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="G18" s="12">
-        <f ca="1" t="shared" si="4"/>
-        <v>0.8</v>
-      </c>
-      <c r="H18" s="12">
-        <f ca="1" t="shared" si="5"/>
-        <v>0.9</v>
-      </c>
-      <c r="I18" s="12">
-        <f ca="1" t="shared" si="6"/>
-        <v>0.97</v>
-      </c>
-      <c r="J18" s="12">
-        <f ca="1" t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="K18" s="27" t="str">
-        <f ca="1" t="shared" si="8"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="9">
-        <v>14</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="11">
-        <f ca="1" t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="D19" s="11">
-        <f ca="1" t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="E19" s="11">
-        <f ca="1" t="shared" si="11"/>
-        <v>88</v>
-      </c>
-      <c r="F19" s="11">
-        <f ca="1" t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="12">
-        <f ca="1">C19/$C$5</f>
-        <v>0.9</v>
-      </c>
-      <c r="H19" s="12">
-        <f ca="1" t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I19" s="12">
-        <f ca="1" t="shared" si="6"/>
-        <v>0.88</v>
-      </c>
-      <c r="J19" s="12">
-        <f ca="1" t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="27" t="str">
-        <f ca="1" t="shared" si="8"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="9">
-        <v>15</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="11">
-        <f ca="1" t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="D20" s="11">
-        <f ca="1" t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="E20" s="11">
-        <f ca="1" t="shared" si="11"/>
-        <v>89</v>
-      </c>
-      <c r="F20" s="11">
-        <f ca="1" t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="12">
-        <f ca="1" t="shared" si="4"/>
-        <v>0.9</v>
-      </c>
-      <c r="H20" s="12">
-        <f ca="1" t="shared" si="5"/>
-        <v>0.8</v>
-      </c>
-      <c r="I20" s="12">
-        <f ca="1" t="shared" si="6"/>
-        <v>0.89</v>
-      </c>
-      <c r="J20" s="12">
-        <f ca="1" t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="27" t="str">
-        <f ca="1" t="shared" si="8"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="9">
-        <v>16</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="11">
-        <f ca="1" t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="D21" s="11">
-        <f ca="1" t="shared" si="10"/>
-        <v>18</v>
-      </c>
-      <c r="E21" s="11">
-        <f ca="1" t="shared" si="11"/>
-        <v>76</v>
-      </c>
-      <c r="F21" s="11">
-        <f ca="1" t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="12">
-        <f ca="1" t="shared" si="4"/>
-        <v>0.8</v>
-      </c>
-      <c r="H21" s="12">
-        <f ca="1" t="shared" si="5"/>
-        <v>0.9</v>
-      </c>
-      <c r="I21" s="12">
-        <f ca="1" t="shared" si="6"/>
-        <v>0.76</v>
-      </c>
-      <c r="J21" s="12">
-        <f ca="1" t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="27" t="str">
-        <f ca="1" t="shared" si="8"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="22" ht="15.25" spans="1:11">
-      <c r="A22" s="13">
-        <v>17</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="15">
-        <f ca="1" t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="D22" s="15">
-        <f ca="1" t="shared" si="10"/>
-        <v>17</v>
-      </c>
-      <c r="E22" s="15">
-        <f ca="1" t="shared" si="11"/>
-        <v>96</v>
-      </c>
-      <c r="F22" s="15">
-        <f ca="1" t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="16">
-        <f ca="1" t="shared" si="4"/>
-        <v>0.8</v>
-      </c>
-      <c r="H22" s="16">
-        <f ca="1" t="shared" si="5"/>
-        <v>0.85</v>
-      </c>
-      <c r="I22" s="16">
-        <f ca="1" t="shared" si="6"/>
-        <v>0.96</v>
-      </c>
-      <c r="J22" s="16">
-        <f ca="1" t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="28" t="str">
-        <f ca="1" t="shared" si="8"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="17"/>
-      <c r="B24" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="21">
-        <f ca="1">MAX(C6:C22)</f>
-        <v>10</v>
-      </c>
-      <c r="D24" s="21">
-        <f ca="1">MAX(D6:D22)</f>
-        <v>20</v>
-      </c>
-      <c r="E24" s="21">
-        <f ca="1">MAX(E6:E22)</f>
-        <v>97</v>
-      </c>
-      <c r="F24" s="21">
-        <f ca="1">MAX(F6:F22)</f>
-        <v>1</v>
-      </c>
-      <c r="G24" s="21">
-        <f ca="1">MAX(G6:G22)</f>
-        <v>1</v>
-      </c>
-      <c r="H24" s="21">
-        <f ca="1">MAX(H6:H22)</f>
-        <v>1</v>
-      </c>
-      <c r="I24" s="21">
-        <f ca="1">MAX(I6:I22)</f>
-        <v>0.97</v>
-      </c>
-      <c r="J24" s="21">
-        <f ca="1">MAX(J6:J22)</f>
-        <v>1</v>
-      </c>
-      <c r="K24" s="29"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="17"/>
-      <c r="B25" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="21">
-        <f ca="1">MIN(C6:C22)</f>
-        <v>8</v>
-      </c>
-      <c r="D25" s="21">
-        <f ca="1">MIN(D6:D22)</f>
-        <v>16</v>
-      </c>
-      <c r="E25" s="21">
-        <f ca="1">MIN(E6:E22)</f>
-        <v>65</v>
-      </c>
-      <c r="F25" s="21">
-        <f ca="1">MIN(F6:F22)</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="21">
-        <f ca="1">MIN(G6:G22)</f>
-        <v>0.8</v>
-      </c>
-      <c r="H25" s="21">
-        <f ca="1">MIN(H6:H22)</f>
-        <v>0.8</v>
-      </c>
-      <c r="I25" s="21">
-        <f ca="1">MIN(I6:I22)</f>
-        <v>0.65</v>
-      </c>
-      <c r="J25" s="21">
-        <f ca="1">MIN(J6:J22)</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="29"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="17"/>
-      <c r="B26" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="21">
-        <f ca="1">AVERAGE(C6:C22)</f>
-        <v>8.58823529411765</v>
-      </c>
-      <c r="D26" s="21">
-        <f ca="1">AVERAGE(D6:D22)</f>
-        <v>18</v>
-      </c>
-      <c r="E26" s="21">
-        <f ca="1">AVERAGE(E6:E22)</f>
-        <v>85.0588235294118</v>
-      </c>
-      <c r="F26" s="21">
-        <f ca="1">AVERAGE(F6:F22)</f>
-        <v>0.411764705882353</v>
-      </c>
-      <c r="G26" s="21">
-        <f ca="1">AVERAGE(G6:G22)</f>
-        <v>0.858823529411765</v>
-      </c>
-      <c r="H26" s="21">
-        <f ca="1">AVERAGE(H6:H22)</f>
-        <v>0.9</v>
-      </c>
-      <c r="I26" s="21">
-        <f ca="1">AVERAGE(I6:I22)</f>
-        <v>0.850588235294118</v>
-      </c>
-      <c r="J26" s="21">
-        <f ca="1">AVERAGE(J6:J22)</f>
-        <v>0.411764705882353</v>
-      </c>
-      <c r="K26" s="29"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="17"/>
-      <c r="B27" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="31">
-        <f ca="1">COUNTIF(K6:K22,"Yes")</f>
-        <v>7</v>
-      </c>
-      <c r="K27" s="17"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-    </row>
-    <row r="33" spans="4:4">
-      <c r="D33" s="24"/>
-    </row>
-    <row r="34" spans="4:4">
-      <c r="D34" s="24"/>
-    </row>
-    <row r="35" spans="4:4">
-      <c r="D35" s="24"/>
-    </row>
-    <row r="36" spans="4:4">
-      <c r="D36" s="24"/>
-    </row>
-    <row r="37" spans="4:4">
-      <c r="D37" s="24"/>
+    <row r="35" ht="14" customHeight="1" spans="2:10">
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="24"/>
+      <c r="D38" s="30"/>
     </row>
     <row r="39" spans="4:4">
-      <c r="D39" s="24"/>
+      <c r="D39" s="30"/>
     </row>
     <row r="40" spans="4:4">
-      <c r="D40" s="24"/>
+      <c r="D40" s="30"/>
     </row>
     <row r="41" spans="4:4">
-      <c r="D41" s="24"/>
+      <c r="D41" s="30"/>
     </row>
     <row r="42" spans="4:4">
-      <c r="D42" s="24"/>
+      <c r="D42" s="30"/>
     </row>
     <row r="43" spans="4:4">
-      <c r="D43" s="24"/>
+      <c r="D43" s="30"/>
     </row>
     <row r="44" spans="4:4">
-      <c r="D44" s="24"/>
+      <c r="D44" s="30"/>
     </row>
     <row r="45" spans="4:4">
-      <c r="D45" s="24"/>
+      <c r="D45" s="30"/>
     </row>
     <row r="46" spans="4:4">
-      <c r="D46" s="24"/>
+      <c r="D46" s="30"/>
     </row>
     <row r="47" spans="4:4">
-      <c r="D47" s="24"/>
+      <c r="D47" s="30"/>
     </row>
     <row r="48" spans="4:4">
-      <c r="D48" s="24"/>
+      <c r="D48" s="30"/>
     </row>
     <row r="49" spans="4:4">
-      <c r="D49" s="24"/>
+      <c r="D49" s="30"/>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" s="30"/>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" s="30"/>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52" s="30"/>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="D53" s="30"/>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="K3:K5"/>
+  <mergeCells count="10">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="A1:K6"/>
+    <mergeCell ref="B33:J35"/>
   </mergeCells>
-  <conditionalFormatting sqref="K6:K22">
+  <conditionalFormatting sqref="K11:K27">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
